--- a/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
+++ b/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C656CF-0C0C-4C9C-9033-456660A43C83}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E51E6AA-B9BF-4070-9942-A9A3913372E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,89 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={65E51169-7DDF-431B-97D7-5AC86993A7BF}</author>
+    <author>tc={24D482F9-3F79-4447-838B-FD4C665F3D67}</author>
+    <author>tc={BF13A08C-3A83-4A87-89AA-5677AE747C03}</author>
+    <author>tc={C221EFA2-F912-4135-981C-E7AF98A329A9}</author>
+    <author>tc={2F5931CB-DF6B-4F53-9005-53E77F3E2987}</author>
+    <author>tc={C6172F8C-64D1-435B-B6C6-C054FCF63812}</author>
+    <author>tc={7A5A69C5-6672-4327-A71A-D60D0159BC65}</author>
+    <author>tc={5B1E393E-188A-4FCD-87DD-803EDEB5A732}</author>
+  </authors>
+  <commentList>
+    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{65E51169-7DDF-431B-97D7-5AC86993A7BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Originally was "ELEL6", which was likely a mistake from dragging and copying the cell above at some point.</t>
+      </text>
+    </comment>
+    <comment ref="B195" authorId="1" shapeId="0" xr:uid="{24D482F9-3F79-4447-838B-FD4C665F3D67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Originally was "ELEL7", which was likely a mistake from dragging and copying the cell above at some point.</t>
+      </text>
+    </comment>
+    <comment ref="B224" authorId="2" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the official USDA Plants code</t>
+      </text>
+    </comment>
+    <comment ref="B225" authorId="3" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the official USDA Plants code</t>
+      </text>
+    </comment>
+    <comment ref="B372" authorId="4" shapeId="0" xr:uid="{2F5931CB-DF6B-4F53-9005-53E77F3E2987}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Originally was "SPAM3", which was likely a mistake from dragging and copying the cell above at some point.</t>
+      </text>
+    </comment>
+    <comment ref="B373" authorId="5" shapeId="0" xr:uid="{C6172F8C-64D1-435B-B6C6-C054FCF63812}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Originally was "SPAM4", which was likely a mistake from dragging and copying the cell above at some point.</t>
+      </text>
+    </comment>
+    <comment ref="B374" authorId="6" shapeId="0" xr:uid="{7A5A69C5-6672-4327-A71A-D60D0159BC65}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Originally was "SPAM5", which was likely a mistake from dragging and copying the cell above at some point.</t>
+      </text>
+    </comment>
+    <comment ref="B391" authorId="7" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is the official USDA Plants code</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="601">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1814,13 +1895,22 @@
   </si>
   <si>
     <t>Zinnia grandiflora</t>
+  </si>
+  <si>
+    <t>CHAB2</t>
+  </si>
+  <si>
+    <t>CHME5</t>
+  </si>
+  <si>
+    <t>MILI5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1960,6 +2050,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2445,6 +2541,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{F2C253AE-3829-426F-8607-10F478AAC97A}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2740,13 +2842,42 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B194" dT="2023-09-11T22:12:56.03" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{65E51169-7DDF-431B-97D7-5AC86993A7BF}">
+    <text>Originally was "ELEL6", which was likely a mistake from dragging and copying the cell above at some point.</text>
+  </threadedComment>
+  <threadedComment ref="B195" dT="2023-09-11T22:13:06.21" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{24D482F9-3F79-4447-838B-FD4C665F3D67}">
+    <text>Originally was "ELEL7", which was likely a mistake from dragging and copying the cell above at some point.</text>
+  </threadedComment>
+  <threadedComment ref="B224" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+    <text>This is the official USDA Plants code</text>
+  </threadedComment>
+  <threadedComment ref="B225" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <text>This is the official USDA Plants code</text>
+  </threadedComment>
+  <threadedComment ref="B372" dT="2023-09-11T22:13:34.20" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{2F5931CB-DF6B-4F53-9005-53E77F3E2987}">
+    <text>Originally was "SPAM3", which was likely a mistake from dragging and copying the cell above at some point.</text>
+  </threadedComment>
+  <threadedComment ref="B373" dT="2023-09-11T22:13:45.25" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C6172F8C-64D1-435B-B6C6-C054FCF63812}">
+    <text>Originally was "SPAM4", which was likely a mistake from dragging and copying the cell above at some point.</text>
+  </threadedComment>
+  <threadedComment ref="B374" dT="2023-09-11T22:13:53.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{7A5A69C5-6672-4327-A71A-D60D0159BC65}">
+    <text>Originally was "SPAM5", which was likely a mistake from dragging and copying the cell above at some point.</text>
+  </threadedComment>
+  <threadedComment ref="B391" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+    <text>This is the official USDA Plants code</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A392" sqref="A392:XFD392"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6643,7 +6774,7 @@
       <c r="A195" t="s">
         <v>263</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C195" t="s">
@@ -7223,8 +7354,8 @@
       <c r="A224" t="s">
         <v>314</v>
       </c>
-      <c r="B224" t="s">
-        <v>314</v>
+      <c r="B224" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="C224" t="s">
         <v>315</v>
@@ -7243,8 +7374,8 @@
       <c r="A225" t="s">
         <v>316</v>
       </c>
-      <c r="B225" t="s">
-        <v>316</v>
+      <c r="B225" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="C225" t="s">
         <v>317</v>
@@ -10563,8 +10694,8 @@
       <c r="A391" t="s">
         <v>584</v>
       </c>
-      <c r="B391" t="s">
-        <v>584</v>
+      <c r="B391" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="C391" t="s">
         <v>585</v>
@@ -10703,5 +10834,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
+++ b/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E51E6AA-B9BF-4070-9942-A9A3913372E1}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD8F5B1-2932-45F6-B0B3-271EF40645C4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,33 +22,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={65E51169-7DDF-431B-97D7-5AC86993A7BF}</author>
-    <author>tc={24D482F9-3F79-4447-838B-FD4C665F3D67}</author>
     <author>tc={BF13A08C-3A83-4A87-89AA-5677AE747C03}</author>
     <author>tc={C221EFA2-F912-4135-981C-E7AF98A329A9}</author>
-    <author>tc={2F5931CB-DF6B-4F53-9005-53E77F3E2987}</author>
-    <author>tc={C6172F8C-64D1-435B-B6C6-C054FCF63812}</author>
-    <author>tc={7A5A69C5-6672-4327-A71A-D60D0159BC65}</author>
     <author>tc={5B1E393E-188A-4FCD-87DD-803EDEB5A732}</author>
   </authors>
   <commentList>
-    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{65E51169-7DDF-431B-97D7-5AC86993A7BF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally was "ELEL6", which was likely a mistake from dragging and copying the cell above at some point.</t>
-      </text>
-    </comment>
-    <comment ref="B195" authorId="1" shapeId="0" xr:uid="{24D482F9-3F79-4447-838B-FD4C665F3D67}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally was "ELEL7", which was likely a mistake from dragging and copying the cell above at some point.</t>
-      </text>
-    </comment>
-    <comment ref="B224" authorId="2" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+    <comment ref="B160" authorId="0" shapeId="0" xr:uid="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +35,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B225" authorId="3" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+    <comment ref="B161" authorId="1" shapeId="0" xr:uid="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,31 +43,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B372" authorId="4" shapeId="0" xr:uid="{2F5931CB-DF6B-4F53-9005-53E77F3E2987}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally was "SPAM3", which was likely a mistake from dragging and copying the cell above at some point.</t>
-      </text>
-    </comment>
-    <comment ref="B373" authorId="5" shapeId="0" xr:uid="{C6172F8C-64D1-435B-B6C6-C054FCF63812}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally was "SPAM4", which was likely a mistake from dragging and copying the cell above at some point.</t>
-      </text>
-    </comment>
-    <comment ref="B374" authorId="6" shapeId="0" xr:uid="{7A5A69C5-6672-4327-A71A-D60D0159BC65}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Originally was "SPAM5", which was likely a mistake from dragging and copying the cell above at some point.</t>
-      </text>
-    </comment>
-    <comment ref="B391" authorId="7" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+    <comment ref="B389" authorId="2" shapeId="0" xr:uid="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="600">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -934,18 +889,6 @@
     <t>Eriogonum abertianum</t>
   </si>
   <si>
-    <t>ERCI</t>
-  </si>
-  <si>
-    <t>Eragrostis cilianensis</t>
-  </si>
-  <si>
-    <t>ERCI2</t>
-  </si>
-  <si>
-    <t>Eragrostis ciliaris</t>
-  </si>
-  <si>
     <t>ERCI6</t>
   </si>
   <si>
@@ -1904,13 +1847,22 @@
   </si>
   <si>
     <t>MILI5</t>
+  </si>
+  <si>
+    <t>S-HEBO</t>
+  </si>
+  <si>
+    <t>SIAL</t>
+  </si>
+  <si>
+    <t>S-PASM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2050,12 +2002,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2844,28 +2790,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B194" dT="2023-09-11T22:12:56.03" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{65E51169-7DDF-431B-97D7-5AC86993A7BF}">
-    <text>Originally was "ELEL6", which was likely a mistake from dragging and copying the cell above at some point.</text>
-  </threadedComment>
-  <threadedComment ref="B195" dT="2023-09-11T22:13:06.21" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{24D482F9-3F79-4447-838B-FD4C665F3D67}">
-    <text>Originally was "ELEL7", which was likely a mistake from dragging and copying the cell above at some point.</text>
-  </threadedComment>
-  <threadedComment ref="B224" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
+  <threadedComment ref="B160" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BF13A08C-3A83-4A87-89AA-5677AE747C03}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B225" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
+  <threadedComment ref="B161" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C221EFA2-F912-4135-981C-E7AF98A329A9}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B372" dT="2023-09-11T22:13:34.20" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{2F5931CB-DF6B-4F53-9005-53E77F3E2987}">
-    <text>Originally was "SPAM3", which was likely a mistake from dragging and copying the cell above at some point.</text>
-  </threadedComment>
-  <threadedComment ref="B373" dT="2023-09-11T22:13:45.25" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{C6172F8C-64D1-435B-B6C6-C054FCF63812}">
-    <text>Originally was "SPAM4", which was likely a mistake from dragging and copying the cell above at some point.</text>
-  </threadedComment>
-  <threadedComment ref="B374" dT="2023-09-11T22:13:53.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{7A5A69C5-6672-4327-A71A-D60D0159BC65}">
-    <text>Originally was "SPAM5", which was likely a mistake from dragging and copying the cell above at some point.</text>
-  </threadedComment>
-  <threadedComment ref="B391" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
+  <threadedComment ref="B389" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{5B1E393E-188A-4FCD-87DD-803EDEB5A732}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
 </ThreadedComments>
@@ -2873,11 +2804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F397"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,8 +2842,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2932,93 +2863,93 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -3027,18 +2958,18 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3052,13 +2983,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -3072,13 +3003,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -3092,13 +3023,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -3112,13 +3043,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>492</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>532</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3127,18 +3058,18 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -3147,18 +3078,18 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3172,13 +3103,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3187,38 +3118,38 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>558</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>559</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -3232,13 +3163,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3247,18 +3178,18 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3267,44 +3198,44 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3312,19 +3243,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -3332,19 +3263,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -3352,19 +3283,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -3372,13 +3303,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -3387,38 +3318,38 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -3427,44 +3358,44 @@
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -3472,33 +3403,33 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -3507,44 +3438,44 @@
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3552,13 +3483,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -3567,32 +3498,32 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -3612,7 +3543,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -3632,7 +3563,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -3652,33 +3583,33 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -3692,7 +3623,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -3712,33 +3643,33 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>478</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>479</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -3752,7 +3683,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -3772,7 +3703,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -3792,7 +3723,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
@@ -3812,7 +3743,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
@@ -3832,7 +3763,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -3852,7 +3783,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
@@ -3872,19 +3803,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3892,13 +3823,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -3912,13 +3843,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -3927,58 +3858,58 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
@@ -3987,12 +3918,12 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -4012,13 +3943,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -4027,18 +3958,18 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -4047,24 +3978,24 @@
         <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4072,13 +4003,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -4087,18 +4018,18 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -4107,38 +4038,38 @@
         <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -4152,19 +4083,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4172,19 +4103,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4192,19 +4123,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4212,13 +4143,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
@@ -4227,18 +4158,18 @@
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -4252,13 +4183,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -4272,13 +4203,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
@@ -4292,13 +4223,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -4312,19 +4243,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4332,33 +4263,33 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -4367,24 +4298,24 @@
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
@@ -4392,19 +4323,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -4412,13 +4343,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
@@ -4427,18 +4358,18 @@
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
@@ -4447,58 +4378,58 @@
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -4507,38 +4438,38 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
         <v>107</v>
@@ -4547,64 +4478,64 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -4612,19 +4543,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -4632,19 +4563,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -4652,19 +4583,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -4672,19 +4603,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -4692,19 +4623,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -4712,19 +4643,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -4732,19 +4663,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -4752,19 +4683,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4772,33 +4703,33 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
@@ -4807,38 +4738,38 @@
         <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
@@ -4847,24 +4778,24 @@
         <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -4872,39 +4803,39 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -4912,133 +4843,133 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
@@ -5052,7 +4983,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
         <v>134</v>
@@ -5072,13 +5003,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -5092,7 +5023,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B111" t="s">
         <v>134</v>
@@ -5112,13 +5043,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
@@ -5132,16 +5063,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E113" t="s">
         <v>12</v>
@@ -5152,13 +5083,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>531</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>532</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -5167,98 +5098,98 @@
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -5267,38 +5198,38 @@
         <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -5307,18 +5238,18 @@
         <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="D122" t="s">
         <v>3</v>
@@ -5327,38 +5258,38 @@
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="D123" t="s">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D124" t="s">
         <v>3</v>
@@ -5372,73 +5303,73 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="D126" t="s">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C128" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="D128" t="s">
         <v>3</v>
@@ -5447,18 +5378,18 @@
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
         <v>3</v>
@@ -5472,53 +5403,53 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="D132" t="s">
         <v>3</v>
@@ -5532,13 +5463,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C133" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="D133" t="s">
         <v>3</v>
@@ -5552,13 +5483,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
         <v>3</v>
@@ -5572,13 +5503,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="D135" t="s">
         <v>3</v>
@@ -5592,33 +5523,33 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
         <v>3</v>
@@ -5632,13 +5563,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="B138" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
         <v>3</v>
@@ -5652,13 +5583,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
         <v>3</v>
@@ -5672,13 +5603,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="D140" t="s">
         <v>3</v>
@@ -5692,13 +5623,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="D141" t="s">
         <v>3</v>
@@ -5707,78 +5638,78 @@
         <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="D143" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="B144" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="D144" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="D145" t="s">
         <v>3</v>
@@ -5792,33 +5723,33 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="D146" t="s">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="D147" t="s">
         <v>3</v>
@@ -5827,84 +5758,84 @@
         <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="C148" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="D148" t="s">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="D149" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
         <v>25</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="B150" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="D151" t="s">
         <v>107</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -5912,33 +5843,33 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
         <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
@@ -5952,19 +5883,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="C154" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
@@ -5972,39 +5903,39 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="D155" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
@@ -6012,13 +5943,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="C157" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="D157" t="s">
         <v>107</v>
@@ -6032,19 +5963,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="D158" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
@@ -6052,19 +5983,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="C159" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
@@ -6072,13 +6003,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>196</v>
-      </c>
-      <c r="B160" t="s">
-        <v>196</v>
+        <v>310</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="C160" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
         <v>3</v>
@@ -6092,13 +6023,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>198</v>
-      </c>
-      <c r="B161" t="s">
-        <v>198</v>
+        <v>312</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="C161" t="s">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="D161" t="s">
         <v>3</v>
@@ -6112,19 +6043,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C162" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -6132,19 +6063,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="B163" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="C163" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
@@ -6152,79 +6083,79 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C164" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="D164" t="s">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B165" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="B166" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B167" t="s">
-        <v>209</v>
+        <v>531</v>
       </c>
       <c r="C167" t="s">
-        <v>210</v>
+        <v>532</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -6232,16 +6163,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C168" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
         <v>41</v>
@@ -6252,33 +6183,33 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="C169" t="s">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="D169" t="s">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="D170" t="s">
         <v>3</v>
@@ -6292,36 +6223,36 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="C171" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="B172" t="s">
-        <v>219</v>
+        <v>324</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E172" t="s">
         <v>41</v>
@@ -6332,13 +6263,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="B173" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="C173" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="D173" t="s">
         <v>3</v>
@@ -6352,19 +6283,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="C174" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="D174" t="s">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -6372,19 +6303,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="C175" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -6392,36 +6323,36 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="B176" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="D176" t="s">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E177" t="s">
         <v>41</v>
@@ -6432,19 +6363,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>231</v>
+        <v>336</v>
       </c>
       <c r="B178" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="C178" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -6452,19 +6383,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="C179" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="D179" t="s">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -6472,19 +6403,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C180" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -6492,19 +6423,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C181" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D181" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -6512,53 +6443,53 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="B182" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="D182" t="s">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="B183" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="C183" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="D183" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="C184" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="D184" t="s">
         <v>3</v>
@@ -6567,18 +6498,18 @@
         <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="B185" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="C185" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
@@ -6587,24 +6518,24 @@
         <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
@@ -6612,16 +6543,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="C187" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="D187" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
         <v>41</v>
@@ -6632,19 +6563,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="C188" t="s">
-        <v>252</v>
+        <v>357</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
@@ -6652,13 +6583,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="B189" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
@@ -6667,24 +6598,24 @@
         <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="B190" t="s">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
@@ -6692,13 +6623,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="B191" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="C191" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
@@ -6712,19 +6643,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="C192" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
@@ -6732,13 +6663,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="B193" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="D193" t="s">
         <v>3</v>
@@ -6752,13 +6683,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>262</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>260</v>
+        <v>140</v>
+      </c>
+      <c r="B194" t="s">
+        <v>134</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
@@ -6772,13 +6703,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>263</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>260</v>
+        <v>366</v>
+      </c>
+      <c r="B195" t="s">
+        <v>366</v>
       </c>
       <c r="C195" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
       <c r="D195" t="s">
         <v>3</v>
@@ -6787,38 +6718,38 @@
         <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
       <c r="C197" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="D197" t="s">
         <v>3</v>
@@ -6832,13 +6763,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>267</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>373</v>
       </c>
       <c r="D198" t="s">
         <v>3</v>
@@ -6847,44 +6778,44 @@
         <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>270</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="C199" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="D200" t="s">
         <v>3</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F200" t="s">
         <v>17</v>
@@ -6892,53 +6823,53 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="C201" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="C202" t="s">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>382</v>
       </c>
       <c r="C203" t="s">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="D203" t="s">
         <v>3</v>
@@ -6952,56 +6883,56 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="C204" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>386</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>386</v>
       </c>
       <c r="C205" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="D205" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E205" t="s">
         <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
       <c r="C206" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="D206" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
         <v>41</v>
@@ -7012,53 +6943,53 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="B207" t="s">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="C207" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="D207" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="B208" t="s">
-        <v>283</v>
+        <v>392</v>
       </c>
       <c r="C208" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="D208" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="B209" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="C209" t="s">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="D209" t="s">
         <v>3</v>
@@ -7072,13 +7003,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>396</v>
       </c>
       <c r="C210" t="s">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="D210" t="s">
         <v>3</v>
@@ -7092,19 +7023,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="C211" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
@@ -7112,19 +7043,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>401</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -7132,19 +7063,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="C213" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="D213" t="s">
         <v>3</v>
       </c>
       <c r="E213" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
@@ -7152,53 +7083,53 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
       <c r="C214" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="D214" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E214" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="C215" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="D215" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>408</v>
       </c>
       <c r="C216" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
         <v>3</v>
@@ -7212,19 +7143,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="B217" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>302</v>
+        <v>411</v>
       </c>
       <c r="D217" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F217" t="s">
         <v>13</v>
@@ -7232,19 +7163,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="B218" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
       <c r="C218" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
         <v>13</v>
@@ -7252,33 +7183,33 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="B219" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
       <c r="C219" t="s">
-        <v>306</v>
+        <v>414</v>
       </c>
       <c r="D219" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="B220" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C220" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="D220" t="s">
         <v>3</v>
@@ -7292,16 +7223,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="B221" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
       <c r="C221" t="s">
-        <v>310</v>
+        <v>417</v>
       </c>
       <c r="D221" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E221" t="s">
         <v>41</v>
@@ -7312,79 +7243,79 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="B222" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="C222" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="D222" t="s">
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="B223" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="D223" t="s">
         <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F223" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>314</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>598</v>
+        <v>18</v>
+      </c>
+      <c r="B224" t="s">
+        <v>59</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="D224" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>316</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>599</v>
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>122</v>
       </c>
       <c r="C225" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F225" t="s">
         <v>13</v>
@@ -7392,13 +7323,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>531</v>
       </c>
       <c r="C226" t="s">
-        <v>319</v>
+        <v>532</v>
       </c>
       <c r="D226" t="s">
         <v>3</v>
@@ -7412,33 +7343,33 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="B227" t="s">
-        <v>320</v>
+        <v>59</v>
       </c>
       <c r="C227" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="C228" t="s">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
@@ -7447,38 +7378,38 @@
         <v>12</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="B229" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="C229" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="D229" t="s">
         <v>3</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F229" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="B230" t="s">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="D230" t="s">
         <v>3</v>
@@ -7487,24 +7418,24 @@
         <v>12</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="B231" t="s">
-        <v>328</v>
+        <v>531</v>
       </c>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>532</v>
       </c>
       <c r="D231" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F231" t="s">
         <v>13</v>
@@ -7512,16 +7443,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="B232" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="C232" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="D232" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E232" t="s">
         <v>41</v>
@@ -7532,19 +7463,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="C233" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
       <c r="D233" t="s">
         <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -7552,19 +7483,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
       <c r="B234" t="s">
-        <v>334</v>
+        <v>422</v>
       </c>
       <c r="C234" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="D234" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -7572,13 +7503,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>495</v>
       </c>
       <c r="B235" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="C235" t="s">
-        <v>337</v>
+        <v>494</v>
       </c>
       <c r="D235" t="s">
         <v>3</v>
@@ -7592,16 +7523,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="B236" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="C236" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="D236" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E236" t="s">
         <v>41</v>
@@ -7612,13 +7543,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="B237" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="C237" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="D237" t="s">
         <v>3</v>
@@ -7632,19 +7563,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="B238" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="C238" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="D238" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -7652,19 +7583,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="B239" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="C239" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="D239" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -7672,13 +7603,13 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="C240" t="s">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
@@ -7687,24 +7618,24 @@
         <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="B241" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="C241" t="s">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="D241" t="s">
         <v>3</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F241" t="s">
         <v>17</v>
@@ -7712,39 +7643,39 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="C242" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="D242" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E242" t="s">
         <v>41</v>
       </c>
       <c r="F242" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="B243" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
@@ -7752,13 +7683,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="B244" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="C244" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
       <c r="D244" t="s">
         <v>3</v>
@@ -7767,24 +7698,24 @@
         <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="B245" t="s">
-        <v>356</v>
+        <v>531</v>
       </c>
       <c r="C245" t="s">
-        <v>357</v>
+        <v>532</v>
       </c>
       <c r="D245" t="s">
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F245" t="s">
         <v>13</v>
@@ -7792,53 +7723,53 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="B246" t="s">
-        <v>358</v>
+        <v>59</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>60</v>
       </c>
       <c r="D246" t="s">
         <v>3</v>
       </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="B247" t="s">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="C247" t="s">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="D247" t="s">
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="B248" t="s">
-        <v>362</v>
+        <v>59</v>
       </c>
       <c r="C248" t="s">
-        <v>363</v>
+        <v>60</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
@@ -7847,78 +7778,78 @@
         <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="B249" t="s">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="C249" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="D249" t="s">
         <v>3</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="B250" t="s">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="C250" t="s">
-        <v>367</v>
+        <v>60</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="B251" t="s">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="C251" t="s">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="B252" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="C252" t="s">
-        <v>371</v>
+        <v>60</v>
       </c>
       <c r="D252" t="s">
         <v>3</v>
@@ -7927,38 +7858,38 @@
         <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="B253" t="s">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="C253" t="s">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F253" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="B254" t="s">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="C254" t="s">
-        <v>375</v>
+        <v>532</v>
       </c>
       <c r="D254" t="s">
         <v>3</v>
@@ -7967,18 +7898,18 @@
         <v>12</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="B255" t="s">
-        <v>376</v>
+        <v>59</v>
       </c>
       <c r="C255" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
@@ -7987,44 +7918,44 @@
         <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="B256" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="C256" t="s">
-        <v>379</v>
+        <v>135</v>
       </c>
       <c r="D256" t="s">
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F256" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>380</v>
+        <v>84</v>
       </c>
       <c r="B257" t="s">
-        <v>380</v>
+        <v>59</v>
       </c>
       <c r="C257" t="s">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="D257" t="s">
         <v>3</v>
       </c>
       <c r="E257" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F257" t="s">
         <v>17</v>
@@ -8032,19 +7963,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="B258" t="s">
-        <v>382</v>
+        <v>122</v>
       </c>
       <c r="C258" t="s">
-        <v>383</v>
+        <v>123</v>
       </c>
       <c r="D258" t="s">
         <v>3</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F258" t="s">
         <v>13</v>
@@ -8052,53 +7983,53 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="B259" t="s">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="C259" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="D259" t="s">
         <v>3</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F259" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="B260" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="D260" t="s">
         <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F260" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>388</v>
+        <v>84</v>
       </c>
       <c r="B261" t="s">
-        <v>388</v>
+        <v>531</v>
       </c>
       <c r="C261" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
@@ -8112,33 +8043,33 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="B262" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="C262" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="D262" t="s">
         <v>3</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F262" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="B263" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="C263" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
@@ -8152,59 +8083,59 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>394</v>
-      </c>
-      <c r="B264" t="s">
-        <v>394</v>
-      </c>
-      <c r="C264" t="s">
-        <v>395</v>
-      </c>
-      <c r="D264" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" t="s">
-        <v>41</v>
-      </c>
-      <c r="F264" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>396</v>
-      </c>
-      <c r="B265" t="s">
-        <v>396</v>
-      </c>
-      <c r="C265" t="s">
-        <v>397</v>
-      </c>
-      <c r="D265" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" t="s">
-        <v>41</v>
-      </c>
-      <c r="F265" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>398</v>
+        <v>533</v>
       </c>
       <c r="B266" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="C266" t="s">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F266" t="s">
         <v>13</v>
@@ -8212,36 +8143,36 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>400</v>
-      </c>
-      <c r="B267" t="s">
-        <v>400</v>
-      </c>
-      <c r="C267" t="s">
-        <v>401</v>
-      </c>
-      <c r="D267" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" t="s">
-        <v>41</v>
-      </c>
-      <c r="F267" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B268" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C268" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="D268" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E268" t="s">
         <v>41</v>
@@ -8252,13 +8183,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="B269" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="C269" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
@@ -8267,18 +8198,18 @@
         <v>41</v>
       </c>
       <c r="F269" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="B270" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="C270" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
@@ -8287,98 +8218,98 @@
         <v>41</v>
       </c>
       <c r="F270" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B271" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="C271" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="D271" t="s">
         <v>107</v>
       </c>
       <c r="E271" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F271" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="B272" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="C272" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="D272" t="s">
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="B273" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="C273" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F273" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="B274" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="C274" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="D274" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E274" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F274" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="B275" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="C275" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
@@ -8392,13 +8323,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="B276" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="C276" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="D276" t="s">
         <v>3</v>
@@ -8412,13 +8343,13 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="B277" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="C277" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
@@ -8432,19 +8363,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="C278" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F278" t="s">
         <v>13</v>
@@ -8452,16 +8383,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="B279" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="C279" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="D279" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E279" t="s">
         <v>41</v>
@@ -8472,13 +8403,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="B280" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="C280" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
@@ -8492,16 +8423,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="B281" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="C281" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="D281" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E281" t="s">
         <v>25</v>
@@ -8512,19 +8443,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="B282" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="C282" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="D282" t="s">
         <v>3</v>
       </c>
       <c r="E282" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F282" t="s">
         <v>13</v>
@@ -8532,19 +8463,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="B283" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="C283" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F283" t="s">
         <v>13</v>
@@ -8552,19 +8483,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="B284" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="C284" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="D284" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="E284" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F284" t="s">
         <v>13</v>
@@ -8572,19 +8503,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="B285" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="C285" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="D285" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E285" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F285" t="s">
         <v>13</v>
@@ -8592,13 +8523,13 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="B286" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="C286" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
@@ -8612,13 +8543,13 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="B287" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="C287" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="D287" t="s">
         <v>3</v>
@@ -8632,36 +8563,36 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="B288" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="C288" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F288" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="B289" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="C289" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="D289" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E289" t="s">
         <v>41</v>
@@ -8672,13 +8603,13 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="B290" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="C290" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
@@ -8687,18 +8618,18 @@
         <v>41</v>
       </c>
       <c r="F290" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="B291" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="C291" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="D291" t="s">
         <v>3</v>
@@ -8707,24 +8638,24 @@
         <v>41</v>
       </c>
       <c r="F291" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="B292" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="C292" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="D292" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F292" t="s">
         <v>17</v>
@@ -8732,53 +8663,53 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="B293" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="C293" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="D293" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E293" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="B294" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="C294" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F294" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="B295" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="C295" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
@@ -8792,13 +8723,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="B296" t="s">
-        <v>453</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
-        <v>454</v>
+        <v>16</v>
       </c>
       <c r="D296" t="s">
         <v>3</v>
@@ -8812,59 +8743,59 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="B297" t="s">
-        <v>456</v>
+        <v>59</v>
       </c>
       <c r="C297" t="s">
-        <v>457</v>
+        <v>60</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F297" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>458</v>
+        <v>85</v>
       </c>
       <c r="B298" t="s">
-        <v>458</v>
+        <v>59</v>
       </c>
       <c r="C298" t="s">
-        <v>459</v>
+        <v>60</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F298" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="B299" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="C299" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
@@ -8872,13 +8803,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>462</v>
+        <v>143</v>
       </c>
       <c r="B300" t="s">
-        <v>462</v>
+        <v>134</v>
       </c>
       <c r="C300" t="s">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -8887,44 +8818,44 @@
         <v>12</v>
       </c>
       <c r="F300" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>464</v>
+        <v>86</v>
       </c>
       <c r="B301" t="s">
-        <v>464</v>
+        <v>59</v>
       </c>
       <c r="C301" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F301" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>466</v>
+        <v>86</v>
       </c>
       <c r="B302" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="C302" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="D302" t="s">
         <v>3</v>
       </c>
       <c r="E302" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F302" t="s">
         <v>13</v>
@@ -8932,13 +8863,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>468</v>
+        <v>86</v>
       </c>
       <c r="B303" t="s">
-        <v>468</v>
+        <v>122</v>
       </c>
       <c r="C303" t="s">
-        <v>469</v>
+        <v>123</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
@@ -8952,13 +8883,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>470</v>
+        <v>86</v>
       </c>
       <c r="B304" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="C304" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
@@ -8972,93 +8903,93 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>472</v>
-      </c>
-      <c r="B305" t="s">
-        <v>472</v>
-      </c>
-      <c r="C305" t="s">
-        <v>473</v>
-      </c>
-      <c r="D305" t="s">
-        <v>3</v>
-      </c>
-      <c r="E305" t="s">
-        <v>41</v>
-      </c>
-      <c r="F305" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="B306" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="C306" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D306" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>476</v>
+        <v>161</v>
       </c>
       <c r="B307" t="s">
-        <v>476</v>
+        <v>157</v>
       </c>
       <c r="C307" t="s">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="D307" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E307" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F307" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>478</v>
+        <v>161</v>
       </c>
       <c r="B308" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C308" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
       </c>
       <c r="E308" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F308" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>480</v>
+        <v>87</v>
       </c>
       <c r="B309" t="s">
-        <v>480</v>
+        <v>59</v>
       </c>
       <c r="C309" t="s">
-        <v>481</v>
+        <v>60</v>
       </c>
       <c r="D309" t="s">
         <v>3</v>
@@ -9072,13 +9003,13 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B310" t="s">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="C310" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
@@ -9092,13 +9023,13 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B311" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="C311" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="D311" t="s">
         <v>3</v>
@@ -9107,18 +9038,18 @@
         <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B312" t="s">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="C312" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
@@ -9132,13 +9063,13 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>482</v>
+        <v>145</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="C313" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
@@ -9152,39 +9083,39 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="B314" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="C314" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F314" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>486</v>
+        <v>110</v>
       </c>
       <c r="B315" t="s">
-        <v>486</v>
+        <v>108</v>
       </c>
       <c r="C315" t="s">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F315" t="s">
         <v>13</v>
@@ -9192,39 +9123,39 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>488</v>
+        <v>162</v>
       </c>
       <c r="B316" t="s">
-        <v>488</v>
+        <v>157</v>
       </c>
       <c r="C316" t="s">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="D316" t="s">
         <v>3</v>
       </c>
       <c r="E316" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F316" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>490</v>
+        <v>162</v>
       </c>
       <c r="B317" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C317" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F317" t="s">
         <v>17</v>
@@ -9232,47 +9163,47 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>492</v>
+        <v>162</v>
       </c>
       <c r="B318" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="C318" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="D318" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F318" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>494</v>
+        <v>146</v>
       </c>
       <c r="B319" t="s">
-        <v>494</v>
+        <v>134</v>
       </c>
       <c r="C319" t="s">
-        <v>495</v>
+        <v>135</v>
       </c>
       <c r="D319" t="s">
         <v>3</v>
       </c>
       <c r="E319" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F319" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B320" t="s">
         <v>497</v>
@@ -9284,10 +9215,10 @@
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F320" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -9295,10 +9226,10 @@
         <v>499</v>
       </c>
       <c r="B321" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C321" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D321" t="s">
         <v>3</v>
@@ -9307,38 +9238,38 @@
         <v>12</v>
       </c>
       <c r="F321" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="B322" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C322" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D322" t="s">
-        <v>3</v>
+        <v>503</v>
       </c>
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="F322" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="B323" t="s">
-        <v>497</v>
+        <v>134</v>
       </c>
       <c r="C323" t="s">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
@@ -9352,13 +9283,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B324" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C324" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
@@ -9367,24 +9298,24 @@
         <v>12</v>
       </c>
       <c r="F324" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B325" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C325" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D325" t="s">
         <v>3</v>
       </c>
       <c r="E325" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F325" t="s">
         <v>13</v>
@@ -9392,13 +9323,13 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B326" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C326" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -9407,38 +9338,38 @@
         <v>12</v>
       </c>
       <c r="F326" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B327" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C327" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D327" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="E327" t="s">
         <v>12</v>
       </c>
       <c r="F327" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>508</v>
+        <v>111</v>
       </c>
       <c r="B328" t="s">
-        <v>508</v>
+        <v>108</v>
       </c>
       <c r="C328" t="s">
-        <v>509</v>
+        <v>109</v>
       </c>
       <c r="D328" t="s">
         <v>3</v>
@@ -9447,38 +9378,38 @@
         <v>12</v>
       </c>
       <c r="F328" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>510</v>
+        <v>111</v>
       </c>
       <c r="B329" t="s">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="C329" t="s">
-        <v>511</v>
+        <v>135</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F329" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="B330" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="C330" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -9487,38 +9418,38 @@
         <v>12</v>
       </c>
       <c r="F330" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B331" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C331" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D331" t="s">
         <v>3</v>
       </c>
       <c r="E331" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B332" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C332" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D332" t="s">
         <v>3</v>
@@ -9532,13 +9463,13 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>515</v>
+      </c>
+      <c r="B333" t="s">
+        <v>516</v>
+      </c>
+      <c r="C333" t="s">
         <v>517</v>
-      </c>
-      <c r="B333" t="s">
-        <v>517</v>
-      </c>
-      <c r="C333" t="s">
-        <v>518</v>
       </c>
       <c r="D333" t="s">
         <v>3</v>
@@ -9552,13 +9483,13 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B334" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C334" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -9572,16 +9503,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>518</v>
+      </c>
+      <c r="B335" t="s">
+        <v>519</v>
+      </c>
+      <c r="C335" t="s">
         <v>520</v>
       </c>
-      <c r="B335" t="s">
-        <v>520</v>
-      </c>
-      <c r="C335" t="s">
-        <v>521</v>
-      </c>
       <c r="D335" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E335" t="s">
         <v>41</v>
@@ -9592,13 +9523,13 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B336" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C336" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D336" t="s">
         <v>107</v>
@@ -9612,13 +9543,13 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B337" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C337" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D337" t="s">
         <v>107</v>
@@ -9627,41 +9558,41 @@
         <v>41</v>
       </c>
       <c r="F337" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B338" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C338" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D338" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E338" t="s">
         <v>41</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B339" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C339" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D339" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E339" t="s">
         <v>41</v>
@@ -9672,33 +9603,33 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E340" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F340" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B341" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C341" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D341" t="s">
         <v>3</v>
@@ -9707,18 +9638,18 @@
         <v>12</v>
       </c>
       <c r="F341" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B342" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C342" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
@@ -9732,13 +9663,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="B343" t="s">
-        <v>535</v>
+        <v>328</v>
       </c>
       <c r="C343" t="s">
-        <v>536</v>
+        <v>329</v>
       </c>
       <c r="D343" t="s">
         <v>3</v>
@@ -9752,19 +9683,19 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="B344" t="s">
+        <v>534</v>
+      </c>
+      <c r="C344" t="s">
         <v>535</v>
       </c>
-      <c r="C344" t="s">
-        <v>536</v>
-      </c>
       <c r="D344" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E344" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F344" t="s">
         <v>13</v>
@@ -9772,19 +9703,19 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>138</v>
+        <v>598</v>
       </c>
       <c r="B345" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C345" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D345" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E345" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F345" t="s">
         <v>13</v>
@@ -9792,19 +9723,19 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="B346" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C346" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D346" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E346" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
@@ -9812,19 +9743,19 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="B347" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C347" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D347" t="s">
         <v>3</v>
       </c>
       <c r="E347" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F347" t="s">
         <v>13</v>
@@ -9832,19 +9763,19 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>540</v>
       </c>
       <c r="B348" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C348" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D348" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E348" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F348" t="s">
         <v>13</v>
@@ -9852,13 +9783,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="B349" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C349" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D349" t="s">
         <v>3</v>
@@ -9872,13 +9803,13 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="B350" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="C350" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="D350" t="s">
         <v>3</v>
@@ -9887,18 +9818,18 @@
         <v>12</v>
       </c>
       <c r="F350" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>537</v>
+        <v>88</v>
       </c>
       <c r="B351" t="s">
-        <v>535</v>
+        <v>59</v>
       </c>
       <c r="C351" t="s">
-        <v>536</v>
+        <v>60</v>
       </c>
       <c r="D351" t="s">
         <v>3</v>
@@ -9907,18 +9838,18 @@
         <v>12</v>
       </c>
       <c r="F351" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B352" t="s">
-        <v>535</v>
+        <v>134</v>
       </c>
       <c r="C352" t="s">
-        <v>536</v>
+        <v>135</v>
       </c>
       <c r="D352" t="s">
         <v>3</v>
@@ -9927,18 +9858,18 @@
         <v>12</v>
       </c>
       <c r="F352" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B353" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="C353" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
       <c r="D353" t="s">
         <v>3</v>
@@ -9947,18 +9878,18 @@
         <v>12</v>
       </c>
       <c r="F353" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B354" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C354" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D354" t="s">
         <v>3</v>
@@ -9972,13 +9903,13 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B355" t="s">
-        <v>535</v>
+        <v>59</v>
       </c>
       <c r="C355" t="s">
-        <v>536</v>
+        <v>60</v>
       </c>
       <c r="D355" t="s">
         <v>3</v>
@@ -9987,7 +9918,7 @@
         <v>12</v>
       </c>
       <c r="F355" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9995,10 +9926,10 @@
         <v>89</v>
       </c>
       <c r="B356" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C356" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D356" t="s">
         <v>3</v>
@@ -10015,10 +9946,10 @@
         <v>90</v>
       </c>
       <c r="B357" t="s">
-        <v>535</v>
+        <v>59</v>
       </c>
       <c r="C357" t="s">
-        <v>536</v>
+        <v>60</v>
       </c>
       <c r="D357" t="s">
         <v>3</v>
@@ -10027,18 +9958,18 @@
         <v>12</v>
       </c>
       <c r="F357" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B358" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C358" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D358" t="s">
         <v>3</v>
@@ -10052,13 +9983,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B359" t="s">
-        <v>535</v>
+        <v>59</v>
       </c>
       <c r="C359" t="s">
-        <v>536</v>
+        <v>60</v>
       </c>
       <c r="D359" t="s">
         <v>3</v>
@@ -10067,18 +9998,18 @@
         <v>12</v>
       </c>
       <c r="F359" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>535</v>
+        <v>91</v>
       </c>
       <c r="B360" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C360" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D360" t="s">
         <v>3</v>
@@ -10092,39 +10023,39 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>538</v>
+        <v>92</v>
       </c>
       <c r="B361" t="s">
-        <v>538</v>
+        <v>59</v>
       </c>
       <c r="C361" t="s">
-        <v>539</v>
+        <v>60</v>
       </c>
       <c r="D361" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E361" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F361" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>540</v>
+        <v>92</v>
       </c>
       <c r="B362" t="s">
-        <v>540</v>
+        <v>122</v>
       </c>
       <c r="C362" t="s">
-        <v>541</v>
+        <v>123</v>
       </c>
       <c r="D362" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E362" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F362" t="s">
         <v>13</v>
@@ -10132,53 +10063,53 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>542</v>
+        <v>93</v>
       </c>
       <c r="B363" t="s">
-        <v>542</v>
+        <v>59</v>
       </c>
       <c r="C363" t="s">
-        <v>543</v>
+        <v>60</v>
       </c>
       <c r="D363" t="s">
         <v>3</v>
       </c>
       <c r="E363" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>544</v>
+        <v>94</v>
       </c>
       <c r="B364" t="s">
-        <v>544</v>
+        <v>59</v>
       </c>
       <c r="C364" t="s">
-        <v>545</v>
+        <v>60</v>
       </c>
       <c r="D364" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E364" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F364" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>546</v>
+        <v>94</v>
       </c>
       <c r="B365" t="s">
-        <v>546</v>
+        <v>134</v>
       </c>
       <c r="C365" t="s">
-        <v>547</v>
+        <v>135</v>
       </c>
       <c r="D365" t="s">
         <v>3</v>
@@ -10187,18 +10118,18 @@
         <v>12</v>
       </c>
       <c r="F365" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B366" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C366" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D366" t="s">
         <v>3</v>
@@ -10212,36 +10143,36 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="B367" t="s">
-        <v>550</v>
+        <v>59</v>
       </c>
       <c r="C367" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="D367" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E367" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F367" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B368" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C368" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D368" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E368" t="s">
         <v>41</v>
@@ -10252,33 +10183,33 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B369" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C369" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D369" t="s">
         <v>3</v>
       </c>
       <c r="E369" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F369" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>556</v>
+        <v>96</v>
       </c>
       <c r="B370" t="s">
-        <v>557</v>
+        <v>59</v>
       </c>
       <c r="C370" t="s">
-        <v>558</v>
+        <v>60</v>
       </c>
       <c r="D370" t="s">
         <v>3</v>
@@ -10287,24 +10218,24 @@
         <v>12</v>
       </c>
       <c r="F370" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="B371" t="s">
-        <v>557</v>
+        <v>122</v>
       </c>
       <c r="C371" t="s">
-        <v>558</v>
+        <v>123</v>
       </c>
       <c r="D371" t="s">
         <v>3</v>
       </c>
       <c r="E371" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F371" t="s">
         <v>13</v>
@@ -10312,13 +10243,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>556</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>557</v>
+        <v>96</v>
+      </c>
+      <c r="B372" t="s">
+        <v>531</v>
       </c>
       <c r="C372" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -10332,13 +10263,13 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>556</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
+      </c>
+      <c r="B373" t="s">
+        <v>550</v>
       </c>
       <c r="C373" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D373" t="s">
         <v>3</v>
@@ -10347,18 +10278,18 @@
         <v>12</v>
       </c>
       <c r="F373" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>556</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
+      </c>
+      <c r="B374" t="s">
+        <v>553</v>
       </c>
       <c r="C374" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D374" t="s">
         <v>3</v>
@@ -10372,13 +10303,13 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B375" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C375" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D375" t="s">
         <v>3</v>
@@ -10392,13 +10323,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="B376" t="s">
-        <v>562</v>
+        <v>449</v>
       </c>
       <c r="C376" t="s">
-        <v>563</v>
+        <v>450</v>
       </c>
       <c r="D376" t="s">
         <v>3</v>
@@ -10412,13 +10343,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>161</v>
+        <v>555</v>
       </c>
       <c r="B377" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C377" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D377" t="s">
         <v>3</v>
@@ -10427,18 +10358,18 @@
         <v>12</v>
       </c>
       <c r="F377" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B378" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C378" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -10452,33 +10383,33 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>162</v>
+        <v>561</v>
       </c>
       <c r="B379" t="s">
+        <v>561</v>
+      </c>
+      <c r="C379" t="s">
         <v>562</v>
       </c>
-      <c r="C379" t="s">
-        <v>563</v>
-      </c>
       <c r="D379" t="s">
         <v>3</v>
       </c>
       <c r="E379" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F379" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B380" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C380" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D380" t="s">
         <v>3</v>
@@ -10487,18 +10418,18 @@
         <v>12</v>
       </c>
       <c r="F380" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B381" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C381" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D381" t="s">
         <v>3</v>
@@ -10512,13 +10443,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>567</v>
+        <v>163</v>
       </c>
       <c r="B382" t="s">
-        <v>568</v>
+        <v>157</v>
       </c>
       <c r="C382" t="s">
-        <v>569</v>
+        <v>158</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -10527,7 +10458,7 @@
         <v>12</v>
       </c>
       <c r="F382" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -10584,7 +10515,7 @@
         <v>3</v>
       </c>
       <c r="E385" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F385" t="s">
         <v>13</v>
@@ -10604,10 +10535,10 @@
         <v>3</v>
       </c>
       <c r="E386" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F386" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -10624,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="E387" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F387" t="s">
         <v>13</v>
@@ -10641,21 +10572,21 @@
         <v>579</v>
       </c>
       <c r="D388" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E388" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F388" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>580</v>
       </c>
-      <c r="B389" t="s">
-        <v>580</v>
+      <c r="B389" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="C389" t="s">
         <v>581</v>
@@ -10664,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="E389" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F389" t="s">
         <v>13</v>
@@ -10681,7 +10612,7 @@
         <v>583</v>
       </c>
       <c r="D390" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E390" t="s">
         <v>41</v>
@@ -10694,8 +10625,8 @@
       <c r="A391" t="s">
         <v>584</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>600</v>
+      <c r="B391" t="s">
+        <v>584</v>
       </c>
       <c r="C391" t="s">
         <v>585</v>
@@ -10747,7 +10678,7 @@
         <v>41</v>
       </c>
       <c r="F393" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -10764,10 +10695,10 @@
         <v>3</v>
       </c>
       <c r="E394" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F394" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -10784,53 +10715,16 @@
         <v>3</v>
       </c>
       <c r="E395" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F395" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>594</v>
-      </c>
-      <c r="B396" t="s">
-        <v>594</v>
-      </c>
-      <c r="C396" t="s">
-        <v>595</v>
-      </c>
-      <c r="D396" t="s">
-        <v>3</v>
-      </c>
-      <c r="E396" t="s">
-        <v>12</v>
-      </c>
-      <c r="F396" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>596</v>
-      </c>
-      <c r="B397" t="s">
-        <v>596</v>
-      </c>
-      <c r="C397" t="s">
-        <v>597</v>
-      </c>
-      <c r="D397" t="s">
-        <v>3</v>
-      </c>
-      <c r="E397" t="s">
-        <v>12</v>
-      </c>
-      <c r="F397" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F395">
+    <sortCondition ref="A1:A395"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
+++ b/data/raw/01b_edited-species8_location-independent-final-fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD8F5B1-2932-45F6-B0B3-271EF40645C4}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53371BE5-1FC3-4F1C-A2FC-E8B39FEEA355}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="602">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -1856,6 +1856,12 @@
   </si>
   <si>
     <t>S-PASM</t>
+  </si>
+  <si>
+    <t>Draba cuneifolia var. integrifolia</t>
+  </si>
+  <si>
+    <t>Eschscholzia californica ssp. Mexicana</t>
   </si>
 </sst>
 </file>
@@ -2351,9 +2357,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2807,8 +2816,8 @@
   <dimension ref="A1:F395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C382" sqref="C382"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5428,8 +5437,8 @@
       <c r="B131" t="s">
         <v>257</v>
       </c>
-      <c r="C131" t="s">
-        <v>256</v>
+      <c r="C131" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="D131" t="s">
         <v>3</v>
@@ -5989,7 +5998,7 @@
         <v>309</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>601</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
